--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/97.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/97.xlsx
@@ -479,13 +479,13 @@
         <v>-0.205582751870255</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.583589104136833</v>
+        <v>-1.606117646179554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07011684545381422</v>
+        <v>0.09219131254026285</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1345322552564945</v>
+        <v>-0.118260019283317</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1787383848882979</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.66548028145972</v>
+        <v>-1.682089788541897</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05945557429399891</v>
+        <v>0.07190102422090465</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1177942639423171</v>
+        <v>-0.0998969944439583</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1583095181596961</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.775477384532599</v>
+        <v>-1.797454028396957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.105701137525441</v>
+        <v>0.1096958291021672</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1989583373159317</v>
+        <v>-0.1926713702364788</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1461424469381626</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.968638096839593</v>
+        <v>-1.97927819730209</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1298036114101618</v>
+        <v>0.1110624341152578</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1887701217375708</v>
+        <v>-0.1750062483845745</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1398992869151679</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.118541964357235</v>
+        <v>-2.117776899157598</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1417701655632495</v>
+        <v>0.111186538202985</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.190685704832843</v>
+        <v>-0.1690083708271216</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1358514040110937</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.940397846665237</v>
+        <v>-1.922499847142833</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2859601348771199</v>
+        <v>0.2462862481028578</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.214401265973473</v>
+        <v>-0.2014112181086583</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1258803247078786</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.689271765101077</v>
+        <v>-1.665783971462629</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3203632480432016</v>
+        <v>0.26550632117158</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2246508035716521</v>
+        <v>-0.2092954777995653</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09961508545079117</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.258115183711465</v>
+        <v>-1.250489352532649</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3963456107421812</v>
+        <v>0.3635865117264627</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.187440017926753</v>
+        <v>-0.176613761332665</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04483681855990637</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7430890598357855</v>
+        <v>-0.7577742235341453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3994409126949076</v>
+        <v>0.3611934929054633</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1535931830833075</v>
+        <v>-0.1404761110345838</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04699309110694849</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1415696870546744</v>
+        <v>-0.1790549617406643</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3112700685330222</v>
+        <v>0.2716502035381237</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1218064760961342</v>
+        <v>-0.1084265953910469</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1815482396701212</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6358431392862987</v>
+        <v>0.5993828183601266</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07264564874726809</v>
+        <v>0.006493789844376762</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01213103552337525</v>
+        <v>0.03357622188264222</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3583635923761483</v>
       </c>
       <c r="E13" t="n">
-        <v>1.262060685573221</v>
+        <v>1.1714705417247</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.22553121257047</v>
+        <v>-0.280878715600637</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1804001179525119</v>
+        <v>0.2080519687462317</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5701424392665932</v>
       </c>
       <c r="E14" t="n">
-        <v>2.021801089821836</v>
+        <v>1.90531991317723</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7230192387781547</v>
+        <v>-0.7861969797198649</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2249432651099545</v>
+        <v>0.2311966510833164</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8027202119058335</v>
       </c>
       <c r="E15" t="n">
-        <v>2.849816262897523</v>
+        <v>2.725077054250738</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.111851946108505</v>
+        <v>-1.163082113522309</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4318349996878989</v>
+        <v>0.4534670722028022</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.040057589632425</v>
       </c>
       <c r="E16" t="n">
-        <v>3.564607626619421</v>
+        <v>3.434863373117002</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.582699934849469</v>
+        <v>-1.627181759987094</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5966437681415819</v>
+        <v>0.6242255366269381</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.267296616786511</v>
       </c>
       <c r="E17" t="n">
-        <v>4.235546445930877</v>
+        <v>4.117377453693182</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.907129190865791</v>
+        <v>-1.933845880857284</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7383998372879075</v>
+        <v>0.7685950918559903</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.474456907753583</v>
       </c>
       <c r="E18" t="n">
-        <v>4.801047892357362</v>
+        <v>4.678174625170759</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.367772173475349</v>
+        <v>-2.411004197447156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9456580439366701</v>
+        <v>0.9749801897463894</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.659802918535124</v>
       </c>
       <c r="E19" t="n">
-        <v>5.252027546677241</v>
+        <v>5.128621361937456</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.700807682963533</v>
+        <v>-2.731595717056524</v>
       </c>
       <c r="G19" t="n">
-        <v>1.116400447831806</v>
+        <v>1.133799840931165</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.825960089091838</v>
       </c>
       <c r="E20" t="n">
-        <v>5.570735604249337</v>
+        <v>5.429160581066284</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.029421436808399</v>
+        <v>-3.060524111264982</v>
       </c>
       <c r="G20" t="n">
-        <v>1.273513302798309</v>
+        <v>1.308627459384663</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.974971661069713</v>
       </c>
       <c r="E21" t="n">
-        <v>5.921049322845334</v>
+        <v>5.805831087799365</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.349106266553313</v>
+        <v>-3.391338887606893</v>
       </c>
       <c r="G21" t="n">
-        <v>1.431671552197903</v>
+        <v>1.475421893241982</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.10779404380848</v>
       </c>
       <c r="E22" t="n">
-        <v>6.197037833325533</v>
+        <v>6.104570067632103</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.621320552718513</v>
+        <v>-3.651091663316187</v>
       </c>
       <c r="G22" t="n">
-        <v>1.502278017826157</v>
+        <v>1.535329126460057</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.223177212219811</v>
       </c>
       <c r="E23" t="n">
-        <v>6.237852017658795</v>
+        <v>6.134322927628641</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.853496670110768</v>
+        <v>-3.880797379338625</v>
       </c>
       <c r="G23" t="n">
-        <v>1.60800740032931</v>
+        <v>1.647325035369391</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.320471554830406</v>
       </c>
       <c r="E24" t="n">
-        <v>6.362693429671943</v>
+        <v>6.260682789656334</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.090041251391023</v>
+        <v>-4.103681750680337</v>
       </c>
       <c r="G24" t="n">
-        <v>1.726421680646279</v>
+        <v>1.769122247112994</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.403129298895401</v>
       </c>
       <c r="E25" t="n">
-        <v>6.317747309241409</v>
+        <v>6.206258037019621</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.244793938618573</v>
+        <v>-4.269513282821702</v>
       </c>
       <c r="G25" t="n">
-        <v>1.714272620481827</v>
+        <v>1.74269975681182</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.473412587409513</v>
       </c>
       <c r="E26" t="n">
-        <v>6.220477445376981</v>
+        <v>6.104013789309467</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.276420770339791</v>
+        <v>-4.288349363242515</v>
       </c>
       <c r="G26" t="n">
-        <v>1.676745004401201</v>
+        <v>1.695677447996014</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.532455982961348</v>
       </c>
       <c r="E27" t="n">
-        <v>6.080398971487109</v>
+        <v>5.961841606457233</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.29710600166774</v>
+        <v>-4.299636995033331</v>
       </c>
       <c r="G27" t="n">
-        <v>1.708810580573738</v>
+        <v>1.726318017231824</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.578601198435257</v>
       </c>
       <c r="E28" t="n">
-        <v>6.007146898718129</v>
+        <v>5.904920171585066</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.250505646750208</v>
+        <v>-4.250011420471435</v>
       </c>
       <c r="G28" t="n">
-        <v>1.667056125269931</v>
+        <v>1.696527195984923</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.609220268419293</v>
       </c>
       <c r="E29" t="n">
-        <v>5.719288197258843</v>
+        <v>5.623736809997414</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.235491972231393</v>
+        <v>-4.228008495741441</v>
       </c>
       <c r="G29" t="n">
-        <v>1.620417809102034</v>
+        <v>1.644937856740755</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.621350210887002</v>
       </c>
       <c r="E30" t="n">
-        <v>5.613243444368053</v>
+        <v>5.534323464910165</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.214573863232944</v>
+        <v>-4.226008229856896</v>
       </c>
       <c r="G30" t="n">
-        <v>1.62590612987576</v>
+        <v>1.664501041110841</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.614152854676109</v>
       </c>
       <c r="E31" t="n">
-        <v>5.362710872352848</v>
+        <v>5.29314250091723</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.096849455638931</v>
+        <v>-4.137181824102193</v>
       </c>
       <c r="G31" t="n">
-        <v>1.456063115604624</v>
+        <v>1.492519056386523</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.588049784708798</v>
       </c>
       <c r="E32" t="n">
-        <v>5.011169253312397</v>
+        <v>4.942763080157142</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.916489714968979</v>
+        <v>-3.966873784514102</v>
       </c>
       <c r="G32" t="n">
-        <v>1.35610092306056</v>
+        <v>1.401785827825093</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.543068769881209</v>
       </c>
       <c r="E33" t="n">
-        <v>4.764835779606645</v>
+        <v>4.707671976751387</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.743908380503343</v>
+        <v>-3.823143730348868</v>
       </c>
       <c r="G33" t="n">
-        <v>1.34765016471038</v>
+        <v>1.41588843233518</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.480315874640253</v>
       </c>
       <c r="E34" t="n">
-        <v>4.386563600117837</v>
+        <v>4.36203333214248</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.576829967292343</v>
+        <v>-3.676551981925452</v>
       </c>
       <c r="G34" t="n">
-        <v>1.264274118479039</v>
+        <v>1.332991281877657</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.400191896588153</v>
       </c>
       <c r="E35" t="n">
-        <v>4.026774169411842</v>
+        <v>3.99858794101685</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.47658014527437</v>
+        <v>-3.586283048656931</v>
       </c>
       <c r="G35" t="n">
-        <v>1.217946792554506</v>
+        <v>1.296678425808667</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.302741717907433</v>
       </c>
       <c r="E36" t="n">
-        <v>3.716348964659471</v>
+        <v>3.712076863945473</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.319800181272594</v>
+        <v>-3.42746266744811</v>
       </c>
       <c r="G36" t="n">
-        <v>1.072997598233363</v>
+        <v>1.149889570892979</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.188170207427051</v>
       </c>
       <c r="E37" t="n">
-        <v>3.325821141495577</v>
+        <v>3.340390961394754</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.183148440252085</v>
+        <v>-3.302860703321871</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9438636448329433</v>
+        <v>1.029470644547193</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.056857641977802</v>
       </c>
       <c r="E38" t="n">
-        <v>3.017340720800295</v>
+        <v>3.051162734826196</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.010613827325359</v>
+        <v>-3.123049940734101</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8484976836790598</v>
+        <v>0.9255269008592208</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.908974647013745</v>
       </c>
       <c r="E39" t="n">
-        <v>2.618689190058584</v>
+        <v>2.651803080760394</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.882900500717393</v>
+        <v>-2.99707991154668</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7539420492156306</v>
+        <v>0.8326196606904277</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.74588905576197</v>
       </c>
       <c r="E40" t="n">
-        <v>2.264320917914134</v>
+        <v>2.299635101088943</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.77655424789583</v>
+        <v>-2.89660159200248</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6576401972354746</v>
+        <v>0.7385852633954529</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.570744957393027</v>
       </c>
       <c r="E41" t="n">
-        <v>2.026214815200653</v>
+        <v>2.051524748856555</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.644922152211866</v>
+        <v>-2.761336166644289</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5803875926974045</v>
+        <v>0.6568765920839293</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.388041279394687</v>
       </c>
       <c r="E42" t="n">
-        <v>1.639069923463393</v>
+        <v>1.658690049709024</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.511308041244493</v>
+        <v>-2.612956589333556</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5337594968661443</v>
+        <v>0.6065355939574884</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.203051312313491</v>
       </c>
       <c r="E43" t="n">
-        <v>1.499103873276521</v>
+        <v>1.53332594047933</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.478449658958592</v>
+        <v>-2.584246203673928</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4519179611783481</v>
+        <v>0.51925975927533</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.020564825892087</v>
       </c>
       <c r="E44" t="n">
-        <v>1.253479982942951</v>
+        <v>1.290912695897668</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.447292232698601</v>
+        <v>-2.539430027523485</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3868260971894564</v>
+        <v>0.4508039444849847</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8446528005941673</v>
       </c>
       <c r="E45" t="n">
-        <v>1.079743020413361</v>
+        <v>1.107466413563536</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.334255309500449</v>
+        <v>-2.422676551909925</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2947905057309357</v>
+        <v>0.3659561697780075</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6783822057225476</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8387533227203351</v>
+        <v>0.8573587155427846</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.314955663810772</v>
+        <v>-2.40987777034502</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3417237516131958</v>
+        <v>0.4063016786740876</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5240158659702622</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5022414387276982</v>
+        <v>0.5047921427425157</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.268128271415103</v>
+        <v>-2.369459259044394</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2680949864367611</v>
+        <v>0.3241973343299278</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3827728437301443</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3641617706742807</v>
+        <v>0.3659444893932802</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.167474746099994</v>
+        <v>-2.261599666376605</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1955276762224169</v>
+        <v>0.2508240775694021</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2546730938814147</v>
       </c>
       <c r="E49" t="n">
-        <v>0.162951083218062</v>
+        <v>0.1543528600107007</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.102054371290648</v>
+        <v>-2.206842752799211</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1636825673116073</v>
+        <v>0.2048208823210508</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1391183874252563</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05363436255554592</v>
+        <v>0.05547548319818179</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.993645070516632</v>
+        <v>-2.077059808022382</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08557437459226462</v>
+        <v>0.1197015386691645</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03582207215566605</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.01857961602079833</v>
+        <v>-0.009353572134346256</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.949566218652098</v>
+        <v>-2.034560728192211</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07333041130190426</v>
+        <v>0.1200519502109826</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0563431999832401</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.08707485210959812</v>
+        <v>-0.07672895133741907</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.852711738469533</v>
+        <v>-1.936286351241238</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03861046770009541</v>
+        <v>0.08238562956172002</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.138528416332267</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2025529757157489</v>
+        <v>-0.2066148295046569</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.795244245611367</v>
+        <v>-1.871474816485801</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02494688574525116</v>
+        <v>0.02463196727773553</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2120820053978049</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1397942685761294</v>
+        <v>-0.1140755214547727</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.787000814090096</v>
+        <v>-1.866586575477438</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.08866630452868859</v>
+        <v>-0.04895299645597199</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2777394351235812</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2944279618842697</v>
+        <v>-0.2847288624163632</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.787319104573914</v>
+        <v>-1.864702383416121</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1250288022327697</v>
+        <v>-0.08988106454032463</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3361198869323551</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3646489748165236</v>
+        <v>-0.3510223459840727</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.706627356757709</v>
+        <v>-1.776623522283963</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1458885093075823</v>
+        <v>-0.1049911022331388</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3878289297175515</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3564610251227076</v>
+        <v>-0.3385725159128942</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.696753051518893</v>
+        <v>-1.760522111937421</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1552985192534889</v>
+        <v>-0.1195974233345894</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4335291465034851</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3585299132675252</v>
+        <v>-0.3362744002178039</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.685592443911987</v>
+        <v>-1.750126569530152</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2176177519177449</v>
+        <v>-0.1784402814943918</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4744485470633406</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4213616228116902</v>
+        <v>-0.4105806277084204</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.661996606714812</v>
+        <v>-1.71490436938507</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2649802519387321</v>
+        <v>-0.2253341060781973</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5108793169123143</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3661469841577959</v>
+        <v>-0.3362247585827131</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.643148845909271</v>
+        <v>-1.690844236894986</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2446943437636467</v>
+        <v>-0.2041444281348394</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5434779104823355</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4649382181329512</v>
+        <v>-0.4498033596225916</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.687764995471259</v>
+        <v>-1.735784517133155</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3338478002907136</v>
+        <v>-0.3079071258595388</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5725538385087142</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5943904620171891</v>
+        <v>-0.5776539307511027</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.681060454637807</v>
+        <v>-1.709652576402072</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3657104297786142</v>
+        <v>-0.3345179623644408</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5985834977332386</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6447446005764483</v>
+        <v>-0.617516163729092</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.792676751043504</v>
+        <v>-1.835304315105674</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4024759007557862</v>
+        <v>-0.3808160873271556</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6217363215560786</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7517982466980559</v>
+        <v>-0.7116790452560667</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.801537052883183</v>
+        <v>-1.848795889489716</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4418606980080483</v>
+        <v>-0.4259009123263253</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6421725319079561</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8491557134479389</v>
+        <v>-0.8116748189062217</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.738222797444973</v>
+        <v>-1.778937698508053</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4969672931032153</v>
+        <v>-0.4883661497996722</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6596955334811606</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.933910045077098</v>
+        <v>-0.9045922794116513</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.920163040173333</v>
+        <v>-1.956873029323051</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5004845489542143</v>
+        <v>-0.4867995181981272</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6741834735837682</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9563509842343647</v>
+        <v>-0.929975215472099</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.927142800071922</v>
+        <v>-1.960419486135868</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4844736615893096</v>
+        <v>-0.4752184167410393</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6850586695152187</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9653536407629077</v>
+        <v>-0.9216164401516468</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.990351202023542</v>
+        <v>-2.031253719266303</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5600180098610166</v>
+        <v>-0.5533397498932002</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6918259252775605</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.967428369100089</v>
+        <v>-0.9216368808249195</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.037657490193029</v>
+        <v>-2.070431189689657</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5218800936783905</v>
+        <v>-0.508949907785303</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6935420607245563</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.02157717264762</v>
+        <v>-0.9785568556489951</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.140465316466274</v>
+        <v>-2.175897033512401</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5614123557878343</v>
+        <v>-0.5541705172569272</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6892470465334579</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.033469264348071</v>
+        <v>-0.9978601514588991</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.244195163108928</v>
+        <v>-2.291886903974415</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6656335086130791</v>
+        <v>-0.6704794082268051</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6779255184086306</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.044435685558887</v>
+        <v>-1.01462004349444</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.317567689845408</v>
+        <v>-2.383055956890982</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6312026545332702</v>
+        <v>-0.6165788128547287</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6584628670320708</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.952140205540184</v>
+        <v>-0.919230721571102</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.315089988235136</v>
+        <v>-2.384656899622663</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6880525470489822</v>
+        <v>-0.6794543238416209</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6306723289059083</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9220705151079194</v>
+        <v>-0.9032942966588335</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.338457327906085</v>
+        <v>-2.403903983581067</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7388096588813322</v>
+        <v>-0.7347813861985151</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5948459795351684</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7383468236365142</v>
+        <v>-0.7126966987754301</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.351453945987308</v>
+        <v>-2.421739201035562</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7267350611695172</v>
+        <v>-0.7339754396523335</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5517000045441898</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.633443828352815</v>
+        <v>-0.6360675347721779</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.224891137274978</v>
+        <v>-2.29452156075446</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.702032507519433</v>
+        <v>-0.7098831861042491</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5023815575520381</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4674860020515869</v>
+        <v>-0.4626795237363154</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.29756649104805</v>
+        <v>-2.371449304592303</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6236045642681813</v>
+        <v>-0.6144865639404565</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4483737223296593</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2894243770767256</v>
+        <v>-0.2721271873437303</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.201720904096303</v>
+        <v>-2.273451606754556</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6485494859013564</v>
+        <v>-0.639952722742086</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3909788683462527</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1019746428773214</v>
+        <v>-0.08515488887005318</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.183119891418126</v>
+        <v>-2.253110216752016</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5440056624480208</v>
+        <v>-0.5416637453102033</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3312613364428219</v>
       </c>
       <c r="E80" t="n">
-        <v>0.06648570585172429</v>
+        <v>0.08724466960826417</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.135038317712366</v>
+        <v>-2.194299479650214</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5103530140006662</v>
+        <v>-0.4995486581279419</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2704865973515433</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2281714314389536</v>
+        <v>0.235712579828497</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.032822540939985</v>
+        <v>-2.082090403719608</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3886711460562444</v>
+        <v>-0.3859350159338815</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2098310507213573</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4673565096916166</v>
+        <v>0.4780951634002501</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.971980876943728</v>
+        <v>-2.011057604048809</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3299115106376238</v>
+        <v>-0.3316913092604415</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1508683429334108</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7162217067870044</v>
+        <v>0.7100763643723697</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.906179429582655</v>
+        <v>-1.955125351758233</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2936190952419063</v>
+        <v>-0.3027254151849039</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09493506441255901</v>
       </c>
       <c r="E84" t="n">
-        <v>1.07609436023418</v>
+        <v>1.086364338505632</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.857305049763532</v>
+        <v>-1.910994668186472</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.251565330079463</v>
+        <v>-0.2653992857408229</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04399199939990217</v>
       </c>
       <c r="E85" t="n">
-        <v>1.227048732353231</v>
+        <v>1.221614433358869</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.749907562316515</v>
+        <v>-1.771228644588055</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2334183923575588</v>
+        <v>-0.2514806472901903</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.0005542682498815658</v>
       </c>
       <c r="E86" t="n">
-        <v>1.550593929250508</v>
+        <v>1.545292494632418</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.722515600082977</v>
+        <v>-1.764636527457602</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1546283571797618</v>
+        <v>-0.167322015282122</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03717094060386619</v>
       </c>
       <c r="E87" t="n">
-        <v>1.781788164301627</v>
+        <v>1.77400026778472</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.600502301221919</v>
+        <v>-1.642004168205999</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.08836261452577959</v>
+        <v>-0.1078294357218653</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06542380078742169</v>
       </c>
       <c r="E88" t="n">
-        <v>1.948367971089583</v>
+        <v>1.941571447226403</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.459276229532593</v>
+        <v>-1.48081777906586</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09031031867905179</v>
+        <v>-0.1027586887021394</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08488812394434768</v>
       </c>
       <c r="E89" t="n">
-        <v>2.125782794760172</v>
+        <v>2.133929863107442</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.401045131522882</v>
+        <v>-1.421002528877513</v>
       </c>
       <c r="G89" t="n">
-        <v>0.004134352129468304</v>
+        <v>0.004868756319195379</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09603593743090383</v>
       </c>
       <c r="E90" t="n">
-        <v>2.274862465130495</v>
+        <v>2.288702260984218</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.185337626572031</v>
+        <v>-1.199584775843118</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04534566954345724</v>
+        <v>0.03597216079982339</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09861721672513364</v>
       </c>
       <c r="E91" t="n">
-        <v>2.32250967452921</v>
+        <v>2.343721253193931</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.003738305072897</v>
+        <v>-1.013739634495622</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07426922222435857</v>
+        <v>0.06393938198117952</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09254118589710156</v>
       </c>
       <c r="E92" t="n">
-        <v>2.323152095689209</v>
+        <v>2.343868718051113</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8401486767751232</v>
+        <v>-0.848962987099939</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08858353370762745</v>
+        <v>0.07530439632081283</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07756831878999364</v>
       </c>
       <c r="E93" t="n">
-        <v>2.351501849470384</v>
+        <v>2.376157681581559</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6348965762032692</v>
+        <v>-0.6286694710955436</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07286173586472258</v>
+        <v>0.06230704821554359</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0529354780592681</v>
       </c>
       <c r="E94" t="n">
-        <v>2.301480601875852</v>
+        <v>2.330723905088662</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4813885799732195</v>
+        <v>-0.4879354356128541</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03929085011045887</v>
+        <v>0.01703533706073757</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.0184877853996456</v>
       </c>
       <c r="E95" t="n">
-        <v>2.221474346638328</v>
+        <v>2.256725747745227</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2936862574540881</v>
+        <v>-0.304578216212267</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01534752146764711</v>
+        <v>0.004839555357377206</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0259345672348011</v>
       </c>
       <c r="E96" t="n">
-        <v>2.068132795890641</v>
+        <v>2.101239386351996</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1449190373752189</v>
+        <v>-0.1483224094751271</v>
       </c>
       <c r="G96" t="n">
-        <v>0.007082189225012967</v>
+        <v>0.008635680393739823</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07807161920149248</v>
       </c>
       <c r="E97" t="n">
-        <v>1.933764570084314</v>
+        <v>1.964063488066851</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.04233313841179195</v>
+        <v>-0.0459511375810637</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01960602982870714</v>
+        <v>-0.03224712619979465</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1343684742899391</v>
       </c>
       <c r="E98" t="n">
-        <v>1.777948237822538</v>
+        <v>1.808636988645347</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04263144014245797</v>
+        <v>0.04548437411209356</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02220199533434281</v>
+        <v>-0.0263134907583417</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1896337177056437</v>
       </c>
       <c r="E99" t="n">
-        <v>1.586708218779134</v>
+        <v>1.608092083118583</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09474931679553489</v>
+        <v>0.09108751618353586</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05752931894196969</v>
+        <v>-0.07750277682560068</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2400398651281746</v>
       </c>
       <c r="E100" t="n">
-        <v>1.448213897067899</v>
+        <v>1.470730758725893</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1845305940016926</v>
+        <v>0.193895342456781</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.112038754367955</v>
+        <v>-0.1286730822676778</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2827881308885677</v>
       </c>
       <c r="E101" t="n">
-        <v>1.27103998133231</v>
+        <v>1.292198998265759</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2050676304484144</v>
+        <v>0.2173772959028656</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04848286097069938</v>
+        <v>-0.04682570638751801</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3183428592509948</v>
       </c>
       <c r="E102" t="n">
-        <v>1.132205468415893</v>
+        <v>1.153468148763796</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1999647623706884</v>
+        <v>0.2040674975061419</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1452066668491279</v>
+        <v>-0.1530442050011259</v>
       </c>
     </row>
   </sheetData>
